--- a/Images/Pillow/Scan_256/SGBM_Scan.xlsx
+++ b/Images/Pillow/Scan_256/SGBM_Scan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy Do\Documents\GitHub\TheDoPro\Images\Pillow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy Do\Documents\GitHub\TheDoPro\Images\Pillow\Scan_256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D3B390-E55F-45A4-9E56-DE1FCDDFA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6877F2D-9E30-462B-97F1-F7573B947B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -132,10 +133,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -143,14 +141,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SGBM</a:t>
+              <a:rPr lang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SGBM Power Regression</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Pixel Disparity vs. Measured Depth</a:t>
+              <a:rPr lang="en-US" sz="2400" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Model</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -169,10 +179,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -230,8 +237,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.35204090113735781"/>
-                  <c:y val="-0.4760728346456693"/>
+                  <c:x val="0.12125603075549167"/>
+                  <c:y val="-0.47878178106524566"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -247,12 +254,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -393,6 +397,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Disparity (pixels)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -415,12 +485,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -455,6 +522,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Measured</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Depth (inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -477,12 +610,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1114,10 +1244,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1445,7 +1575,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1482,7 +1612,7 @@
         <v>3.3786080412747443</v>
       </c>
       <c r="D2">
-        <f>100*ABS(C2-B2)/B2</f>
+        <f t="shared" ref="D2:D13" si="0">100*ABS(C2-B2)/B2</f>
         <v>12.62026804249148</v>
       </c>
     </row>
@@ -1494,11 +1624,11 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" si="0">616.33*POWER(A3,-1.011)</f>
+        <f t="shared" ref="C3:C13" si="1">616.33*POWER(A3,-1.011)</f>
         <v>6.275038060332732</v>
       </c>
       <c r="D3">
-        <f>100*ABS(C3-B3)/B3</f>
+        <f t="shared" si="0"/>
         <v>4.5839676722122009</v>
       </c>
     </row>
@@ -1510,11 +1640,11 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>8.3499433872170137</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>8.3499433872170137</v>
-      </c>
-      <c r="D4">
-        <f>100*ABS(C4-B4)/B4</f>
         <v>7.2228512531442925</v>
       </c>
     </row>
@@ -1526,11 +1656,11 @@
         <v>12</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>10.78470992634902</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>10.78470992634902</v>
-      </c>
-      <c r="D5">
-        <f>100*ABS(C5-B5)/B5</f>
         <v>10.127417280424833</v>
       </c>
     </row>
@@ -1542,11 +1672,11 @@
         <v>15</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>13.978271323870572</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>13.978271323870572</v>
-      </c>
-      <c r="D6">
-        <f>100*ABS(C6-B6)/B6</f>
         <v>6.8115245075295165</v>
       </c>
     </row>
@@ -1558,11 +1688,11 @@
         <v>18</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>16.96466438411375</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>16.96466438411375</v>
-      </c>
-      <c r="D7">
-        <f>100*ABS(C7-B7)/B7</f>
         <v>5.7518645327013909</v>
       </c>
     </row>
@@ -1574,11 +1704,11 @@
         <v>21</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>20.435425021663683</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>20.435425021663683</v>
-      </c>
-      <c r="D8">
-        <f>100*ABS(C8-B8)/B8</f>
         <v>2.6884522777919866</v>
       </c>
     </row>
@@ -1590,11 +1720,11 @@
         <v>24</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>22.870478591802016</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>22.870478591802016</v>
-      </c>
-      <c r="D9">
-        <f>100*ABS(C9-B9)/B9</f>
         <v>4.7063392008249343</v>
       </c>
     </row>
@@ -1606,11 +1736,11 @@
         <v>27</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>27.796892961486236</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>27.796892961486236</v>
-      </c>
-      <c r="D10">
-        <f>100*ABS(C10-B10)/B10</f>
         <v>2.9514554129119857</v>
       </c>
     </row>
@@ -1622,11 +1752,11 @@
         <v>30</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>31.300514227660472</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>31.300514227660472</v>
-      </c>
-      <c r="D11">
-        <f>100*ABS(C11-B11)/B11</f>
         <v>4.3350474255349054</v>
       </c>
     </row>
@@ -1638,11 +1768,11 @@
         <v>33</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>34.882916716418222</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>34.882916716418222</v>
-      </c>
-      <c r="D12">
-        <f>100*ABS(C12-B12)/B12</f>
         <v>5.7058082315703711</v>
       </c>
     </row>
@@ -1654,11 +1784,11 @@
         <v>36</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>38.899428139503208</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>38.899428139503208</v>
-      </c>
-      <c r="D13">
-        <f>100*ABS(C13-B13)/B13</f>
         <v>8.0539670541755779</v>
       </c>
     </row>
@@ -1675,11 +1805,11 @@
         <v>39</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q23" si="1">340.56*POWER(O16,-0.856)</f>
+        <f t="shared" ref="Q16:Q23" si="2">340.56*POWER(O16,-0.856)</f>
         <v>35.984921203666474</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:R23" si="2">100*ABS(Q16-P16)/P16</f>
+        <f t="shared" ref="R16:R23" si="3">100*ABS(Q16-P16)/P16</f>
         <v>7.7309712726500672</v>
       </c>
     </row>
@@ -1691,11 +1821,11 @@
         <v>42</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.364261565053859</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2755677022527179</v>
       </c>
     </row>
@@ -1707,11 +1837,11 @@
         <v>45</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.100087098626524</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2220286697188349</v>
       </c>
     </row>
@@ -1723,11 +1853,11 @@
         <v>48</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.943502529446889</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2010363969856486</v>
       </c>
     </row>
@@ -1739,11 +1869,11 @@
         <v>54</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.222826922051226</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2644943000948632</v>
       </c>
     </row>
@@ -1755,11 +1885,11 @@
         <v>60</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.385743470944888</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3095724515748133</v>
       </c>
     </row>
@@ -1771,11 +1901,11 @@
         <v>66</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.080577255765263</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.394814023886763</v>
       </c>
     </row>
@@ -1794,11 +1924,11 @@
         <v>72</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.878667064952992</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.998148701323601</v>
       </c>
     </row>
